--- a/mwConfigParser_result_20180602.xlsx
+++ b/mwConfigParser_result_20180602.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Host appBase="webapps" autoDeploy="true" name="localhost" unpackWARs="true"&gt;
-        &lt;Valve className="org.apache.catalina.valves.AccessLogValve" directory="logs" pattern="%h %l %u %t &amp;quot;%r&amp;quot; %s %b" prefix="localhost_access_log" suffix=".txt"/&gt;
-      &lt;/Host&gt;
-</t>
   </si>
   <si>
     <t>default(not use)(context.xml)
@@ -314,7 +308,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -326,7 +320,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>

--- a/mwConfigParser_result_20180602.xlsx
+++ b/mwConfigParser_result_20180602.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Item</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Host appBase="webapps" autoDeploy="true" name="localhost" unpackWARs="true"&gt;
+&lt;Valve className="org.apache.catalina.valves.AccessLogValve" directory="logs" pattern="%h %l %u %t &amp;quot;%r&amp;quot; %s %b" prefix="localhost_access_log" suffix=".txt"/&gt;
+&lt;/Host&gt;
+</t>
   </si>
   <si>
     <t>default(not use)(context.xml)
@@ -308,7 +314,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -320,7 +326,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>

--- a/mwConfigParser_result_20180602.xlsx
+++ b/mwConfigParser_result_20180602.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -53,17 +53,137 @@
     <t>m1(Tomcat)</t>
   </si>
   <si>
+    <t>m2(nginx)</t>
+  </si>
+  <si>
+    <t>ti2</t>
+  </si>
+  <si>
+    <t>m1(httpd)</t>
+  </si>
+  <si>
+    <t>m2(unknown)</t>
+  </si>
+  <si>
+    <t>ti3</t>
+  </si>
+  <si>
+    <t>m1(unknown)</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Host appBase="webapps" autoDeploy="true" name="localhost" unpackWARs="true"&gt;
-&lt;Valve className="org.apache.catalina.valves.AccessLogValve" directory="logs" pattern="%h %l %u %t &amp;quot;%r&amp;quot; %s %b" prefix="localhost_access_log" suffix=".txt"/&gt;
-&lt;/Host&gt;
+    <t>listings : false</t>
+  </si>
+  <si>
+    <t>/WEB-INF/jsp/401.jsp : 401
+/WEB-INF/jsp/403.jsp : 403
+/WEB-INF/jsp/404.jsp : 404</t>
+  </si>
+  <si>
+    <t>url pattern : /*
+	PUT
+	POST
+	DELETE
+	OPTIONS
+	TRACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Host appBase="webapps" autoDeploy="true" name="localhost" unpackWARs="true"&gt;
+&lt;Valve className="org.apache.catalina.valves.AccessLogValve" directory="logs" pattern="%h %l %u %t &amp;quot;%r&amp;quot; %s %b" prefix="localhost_access_log" suffix=".txt"/&gt;
+&lt;/Host&gt;
 </t>
   </si>
   <si>
-    <t>default(not use)(context.xml)
+    <t>false(context.xml)
 default(not use)(server.xml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Connector connectionTimeout="20000" port="8080" protocol="HTTP/1.1" redirectPort="8443" server="null"/&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user nobody; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error_log logs/error.log; 
+error_log logs/error.log notice; 
+error_log logs/error.log info; 
+http
+	log_format main '$remote_addr - $remote_user [$time_local] "$request" ' /split/
+'$status $body_bytes_sent "$http_referer" '/split/
+'"$http_user_agent" "$http_x_forwarded_for"';
+	access_log logs/access.log main; 
+server(localhost; )
+	access_log logs/host.access.log main; </t>
+  </si>
+  <si>
+    <t>location = /50x.html 
+	autoindex on
+location = /50x.html 
+	autoindex on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server(localhost; )
+	error_page 404 /404.html; 
+	error_page 500 502 503 504 /50x.html; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">location / 
+	limit_except GET
+		deny all; 
+		allow null
+location = /50x.html 
+location ~ \.php$ 
+location ~ \.php$ 
+location ~ /\.ht </t>
+  </si>
+  <si>
+    <t xml:space="preserve">location / 
+	root html; 
+location = /50x.html 
+	root html; 
+location ~ \.php$ 
+	root html; </t>
+  </si>
+  <si>
+    <t>disable_symlinks on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server 
+	server_tokens off; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">location ~ \.php$ 
+location ~ \.php$ 
+location ~ /\.ht 
+	deny all; </t>
+  </si>
+  <si>
+    <t>User null
+Group null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ErrorLog "logs/error.log" 
+CustomLog "logs/access.log" combined </t>
+  </si>
+  <si>
+    <t>&lt;Directory "C:/xampp/htdocs"&gt;
+	Options Indexes FollowSymLinks Includes ExecCGI 
+&lt;/Directory&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServerRoot "C:/xampp/apache" 
+DocumentRoot "C:/xampp/htdocs" </t>
+  </si>
+  <si>
+    <t>&lt;Directory /&gt;
+	Options FollowSymLinks 
+&lt;/Directory&gt;
+&lt;Directory "C:/xampp/htdocs"&gt;
+	Options Indexes FollowSymLinks Includes ExecCGI 
+&lt;/Directory&gt;</t>
   </si>
 </sst>
 </file>
@@ -173,14 +293,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.6484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.0" customWidth="true"/>
+    <col min="3" max="3" width="30.0" customWidth="true"/>
+    <col min="4" max="4" width="30.0" customWidth="true"/>
+    <col min="5" max="5" width="30.0" customWidth="true"/>
+    <col min="6" max="6" width="30.0" customWidth="true"/>
+    <col min="7" max="7" width="30.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -190,6 +315,11 @@
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
     </row>
     <row r="2">
       <c r="A2"/>
@@ -198,6 +328,11 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
     </row>
     <row r="3">
       <c r="A3"/>
@@ -206,6 +341,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4"/>
@@ -214,6 +354,11 @@
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
@@ -222,140 +367,254 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
     </row>
     <row r="17">
       <c r="A17"/>
@@ -364,6 +623,11 @@
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
     </row>
     <row r="18">
       <c r="A18"/>
@@ -372,6 +636,11 @@
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
     </row>
     <row r="19">
       <c r="A19"/>
@@ -380,6 +649,11 @@
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
     </row>
     <row r="20">
       <c r="A20"/>
@@ -388,10 +662,18 @@
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
